--- a/Discharge/Discharge_2019/Discharge_Aug09.xlsx
+++ b/Discharge/Discharge_2019/Discharge_Aug09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5D343A-655F-7342-9FF7-8A4D14BD96FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566509B-26BB-1644-8C50-3591AB41C4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1540" windowWidth="13860" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1540" windowWidth="13860" windowHeight="13300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
   <si>
     <t>station 1</t>
   </si>
@@ -415,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -1377,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1857,6 +1857,231 @@
         <v>4.0039999999999999E-2</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <f>B18*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>A33</f>
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <f>SUM(E33:E42)</f>
+        <v>2.4844248000000005E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B42" si="7">B19*2.54</f>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>(A34+(A35-A34)/2)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E34">
+        <f>(D34-D33)*(B34)*C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.6</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="7"/>
+        <v>0.20320000000000002</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D36" si="8">(A35+(A36-A35)/2)</f>
+        <v>0.625</v>
+      </c>
+      <c r="E35">
+        <f>(D35-D34)*(B35)*C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.65</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="7"/>
+        <v>0.254</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E42" si="9">(D36-D35)*(B36)*C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="7"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>(A37+(A38-A37)/2)</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.75</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="7"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="10">(A38+(A39-A38)/2)</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.8</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="7"/>
+        <v>0.40640000000000004</v>
+      </c>
+      <c r="C39">
+        <v>4.0039999999999999E-2</v>
+      </c>
+      <c r="D39">
+        <f>(A39+(A40-A39)/2)</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>8.1361279999999888E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.85</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="7"/>
+        <v>0.40640000000000004</v>
+      </c>
+      <c r="C40">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D42" si="11">(A40+(A41-A40)/2)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>1.1623040000000012E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.9</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="7"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C41">
+        <v>2.86E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>5.0850800000000051E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.95</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1864,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2133,7 +2358,7 @@
         <v>8.6514999999999888E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.5</v>
       </c>
@@ -2153,7 +2378,7 @@
         <v>1.029600000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.55000000000000004</v>
       </c>
@@ -2173,7 +2398,7 @@
         <v>8.6514999999999888E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.6</v>
       </c>
@@ -2193,7 +2418,7 @@
         <v>4.0540500000000039E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.62</v>
       </c>
@@ -2213,10 +2438,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>A20-A14</f>
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.38</v>
+      </c>
+      <c r="B26">
+        <f>B14*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>A26</f>
+        <v>0.38</v>
+      </c>
+      <c r="F26">
+        <f>SUM(E26:E32)</f>
+        <v>9.363811599999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.4</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B32" si="6">B15*2.54</f>
+        <v>0.1143</v>
+      </c>
+      <c r="C27">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="D27">
+        <f>(A27+(A28-A27)/2)</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="E27">
+        <f>(D27-D26)*(B27)*C27</f>
+        <v>1.3239369000000013E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.45</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D29" si="7">(A28+(A29-A28)/2)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E28">
+        <f>(D28-D27)*(B28)*C28</f>
+        <v>2.1974809999999968E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.5</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E32" si="8">(D29-D28)*(B29)*C29</f>
+        <v>2.6151840000000026E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="D30">
+        <f>(A30+(A31-A30)/2)</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>2.1974809999999968E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.6</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>0.1143</v>
+      </c>
+      <c r="C31">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31" si="9">(A31+(A32-A31)/2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>1.0297287000000008E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.62</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>(A32+(A33-A32)/2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2712,21 +3102,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -2910,7 +3285,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FA41B2A-ABAD-479D-A521-0F3A52E52A48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC64033-DC9A-48BB-A72D-E23C61D6A468}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2926,28 +3334,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2266EE54-433C-438A-94C8-A58E525559CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FA41B2A-ABAD-479D-A521-0F3A52E52A48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>